--- a/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.029971166217971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.859697387956629</v>
+        <v>3.85969738795663</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.359205981115245</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1793608581321001</v>
+        <v>-0.07720484053598622</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3554554227068003</v>
+        <v>-0.3546581750306234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2348757159313377</v>
+        <v>0.6829779693429548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.06723339733912501</v>
+        <v>-0.2850334770625147</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2006330097133556</v>
+        <v>-0.4294240282373714</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.184365799350524</v>
+        <v>1.382496535438666</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6917251350758293</v>
+        <v>0.5915828347592116</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3121934933597597</v>
+        <v>0.3402786281043726</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.690696387903846</v>
+        <v>1.58876820049291</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.809723260884442</v>
+        <v>5.064485832990892</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.868310345074928</v>
+        <v>5.016075933281092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.60041292538863</v>
+        <v>9.35014946409806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.205152675854667</v>
+        <v>4.963524383649752</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.633594242700673</v>
+        <v>4.470655670232136</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.521865650374803</v>
+        <v>9.287297484235225</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.156300359369864</v>
+        <v>4.179521678940448</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.834662531741546</v>
+        <v>3.897136870051713</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.964392210878064</v>
+        <v>7.159066125595499</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.758939529954638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.443014053662875</v>
+        <v>1.443014053662876</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.9105574905911069</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1180826646466143</v>
+        <v>-0.04483565908462569</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.186025905738163</v>
+        <v>-0.1883149238541662</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03682279380725487</v>
+        <v>0.07814371513740719</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05732837009640405</v>
+        <v>-0.1192420150303817</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1384779490907105</v>
+        <v>-0.1768670888123308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2226740289232391</v>
+        <v>0.2448850189210796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1734756503972859</v>
+        <v>0.1578381805959444</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02816034587825412</v>
+        <v>0.08737680500610993</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4228597223683795</v>
+        <v>0.4690412654884893</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.59652091811449</v>
+        <v>2.983373066185215</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.515940519739963</v>
+        <v>2.991018106826312</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.303779948553006</v>
+        <v>4.795359262999478</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.234240361779677</v>
+        <v>2.896267881870331</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.7107516623411</v>
+        <v>2.769922805493866</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.639430395415366</v>
+        <v>5.669015207133975</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.137850467509775</v>
+        <v>2.061959010403006</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.87264579468298</v>
+        <v>1.946747930889971</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.706654259914221</v>
+        <v>3.407132702141642</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.267018720658705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.893946213675618</v>
+        <v>3.89394621367562</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.911077458828863</v>
@@ -869,7 +869,7 @@
         <v>5.192058834837762</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.023577564201686</v>
+        <v>4.023577564201683</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.865379241483835</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1209961185136066</v>
+        <v>0.257166669644907</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7184870064447099</v>
+        <v>-0.7176129786396083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2057107511803863</v>
+        <v>0.1955280773317252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.753963798946135</v>
+        <v>1.661456432856641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.65171967973185</v>
+        <v>1.958783276461969</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.00914558580412601</v>
+        <v>0.1480758022052318</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.834501563643699</v>
+        <v>1.68252078726838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.514618647291638</v>
+        <v>1.228809447599419</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.52993238811227</v>
+        <v>1.283361259237009</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.711439841719243</v>
+        <v>5.940263403793177</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.476428305188065</v>
+        <v>5.36087990131863</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.218623798562664</v>
+        <v>8.591441853159173</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.657004965902274</v>
+        <v>8.492646000458963</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.789212356277307</v>
+        <v>8.81018358393742</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.652287261179008</v>
+        <v>7.922901535428927</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.182375020517695</v>
+        <v>6.061824823133878</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.947704954721937</v>
+        <v>5.942059446895754</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.000963921844973</v>
+        <v>6.807196857263084</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3548428564984121</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6094960685240193</v>
+        <v>0.6094960685240195</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.675936607353222</v>
@@ -974,7 +974,7 @@
         <v>0.7146095054333484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5537854759915734</v>
+        <v>0.5537854759915729</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5691116074263837</v>
@@ -983,7 +983,7 @@
         <v>0.5455542959831208</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5895703840874228</v>
+        <v>0.589570384087423</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.001727088652937817</v>
+        <v>0.0239557774721525</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09638553398401359</v>
+        <v>-0.09580433877608663</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0649426480102855</v>
+        <v>0.02555676844993138</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1786829520372809</v>
+        <v>0.1915659879921511</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1797754065688065</v>
+        <v>0.2119881696070843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.002337334815998001</v>
+        <v>0.02046873875263684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2386939443258235</v>
+        <v>0.2215631557726667</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2064297734045025</v>
+        <v>0.1756448601934519</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1833706647386375</v>
+        <v>0.1719858311727281</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.069189539773254</v>
+        <v>1.156572154602131</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.051325407022974</v>
+        <v>1.05276262231274</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.452851518771564</v>
+        <v>1.576297103554258</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.493203350557964</v>
+        <v>1.444223707441378</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.524737695064498</v>
+        <v>1.505024746207484</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.296517483465381</v>
+        <v>1.374350845356759</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.050593929448015</v>
+        <v>1.041477130011931</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.02876799919966</v>
+        <v>1.028393341620861</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.203833899950397</v>
+        <v>1.135202093083913</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.256334988901866</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.651647733786509</v>
+        <v>4.651647733786506</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.627993392391126</v>
@@ -1092,7 +1092,7 @@
         <v>1.435766095194087</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.139701683534533</v>
+        <v>3.139701683534536</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5811818958916252</v>
+        <v>0.9707157964098564</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.12696767474412</v>
+        <v>-3.314798148233228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.272892173989026</v>
+        <v>-2.350065503662937</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5124291729208235</v>
+        <v>0.7001714889620716</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.385182808466235</v>
+        <v>-1.705163847817495</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.18279997104439</v>
+        <v>1.068762135573528</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.598292368513829</v>
+        <v>1.924164939455591</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9263485313431916</v>
+        <v>-1.122381933135454</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2267918751077838</v>
+        <v>0.2576136516648562</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.614797352787583</v>
+        <v>8.712080160908497</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.299455565405406</v>
+        <v>4.158950232429282</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.48689425205114</v>
+        <v>5.650539081287561</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.856280463703835</v>
+        <v>8.337507535174108</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.815725614951059</v>
+        <v>5.635951042567271</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.313827000572312</v>
+        <v>8.348221094114921</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.109807715580185</v>
+        <v>7.459742628538872</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.264724255803897</v>
+        <v>4.263810998611851</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.758656791759228</v>
+        <v>5.437428955436277</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.21328127618057</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4396994993581568</v>
+        <v>0.4396994993581566</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3952437865979802</v>
@@ -1197,7 +1197,7 @@
         <v>0.1226185043968506</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2681394455377749</v>
+        <v>0.2681394455377751</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04274629300775268</v>
+        <v>0.05147676903439282</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2031444207538824</v>
+        <v>-0.2249946936042193</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1537096591028692</v>
+        <v>-0.1641151386017807</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03461555911662225</v>
+        <v>0.05525568075220094</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1273339086638713</v>
+        <v>-0.1403414151758816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08316628213725681</v>
+        <v>0.07932864262318473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1179317965386307</v>
+        <v>0.1369452995731759</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0766405003523791</v>
+        <v>-0.08344131809489114</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.01676794975438791</v>
+        <v>0.02061062018198363</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7895091974403332</v>
+        <v>0.8162934568003001</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3854105752377096</v>
+        <v>0.3796645934031904</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5071995262355623</v>
+        <v>0.5224697839256238</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9001515491494848</v>
+        <v>0.9657289128184566</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6552480373969389</v>
+        <v>0.6495078571031223</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9332000441879191</v>
+        <v>0.9549314979529496</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6850325387488803</v>
+        <v>0.701630214068049</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3989882842339735</v>
+        <v>0.4077896250893221</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5606425043414539</v>
+        <v>0.5210819953424557</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>8.665774340279905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.560083807533578</v>
+        <v>5.560083807533575</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8.157737018115188</v>
@@ -1306,7 +1306,7 @@
         <v>5.175295661103521</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.85556776926296</v>
+        <v>3.855567769262963</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6412349518107765</v>
+        <v>0.778941819235875</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.311672812639333</v>
+        <v>2.780142495047159</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5616546453665737</v>
+        <v>0.6567284052313179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.522568112506439</v>
+        <v>3.696272361937456</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.935445732113442</v>
+        <v>-2.893578736474856</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.739348159795056</v>
+        <v>-2.392836846309757</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.334498097060998</v>
+        <v>3.03089203978393</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.076024395333835</v>
+        <v>1.751674022036704</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8730832337911274</v>
+        <v>0.8107648010842621</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.854367243025566</v>
+        <v>10.03327060367494</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.90040540604085</v>
+        <v>13.18294615425699</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.753772577954772</v>
+        <v>9.856977158108963</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.34430750492792</v>
+        <v>12.83467483342217</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.893667756340316</v>
+        <v>5.731794002614754</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.766202498565299</v>
+        <v>5.603514681210296</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.11602365784916</v>
+        <v>9.996480740765373</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.738172221261111</v>
+        <v>8.42241945166179</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.890032120023684</v>
+        <v>6.69314492283033</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5883568017105301</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3774980743541146</v>
+        <v>0.3774980743541145</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.5567917653035511</v>
@@ -1411,7 +1411,7 @@
         <v>0.3522916504952672</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2624554077631922</v>
+        <v>0.2624554077631924</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02799976852437892</v>
+        <v>0.04699703262461755</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1890469925881193</v>
+        <v>0.1311161890670604</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03020441340889533</v>
+        <v>0.04368463642362721</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2019968917879641</v>
+        <v>0.2203842251815154</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1676816744762944</v>
+        <v>-0.173635752924977</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1017902268386722</v>
+        <v>-0.133594953718862</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1973333950829907</v>
+        <v>0.1863913696877989</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.125453335835516</v>
+        <v>0.1059207183233529</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05028631461219669</v>
+        <v>0.05101728785866119</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7858350998140735</v>
+        <v>0.7922350321316441</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.022265408409323</v>
+        <v>1.040393310253344</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7696141922808616</v>
+        <v>0.7926294968810882</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.07036172947849</v>
+        <v>1.032903502888475</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4870757220423473</v>
+        <v>0.4620626723951002</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4710079456174557</v>
+        <v>0.4346780693615926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7753934442360614</v>
+        <v>0.7815844392266814</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6793265040423874</v>
+        <v>0.6631138960303533</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5316350604196006</v>
+        <v>0.5143163538878983</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.514440883854053</v>
+        <v>-5.695073907474312</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.541485463670226</v>
+        <v>-3.256935728065979</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.670625430265686</v>
+        <v>-3.20886230201498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.383716424463144</v>
+        <v>1.201162098540538</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.167059648145406</v>
+        <v>-1.120935098612249</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.831247211543446</v>
+        <v>-6.042495396671573</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.2308430540578618</v>
+        <v>-0.2182616928074193</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.148221282010647</v>
+        <v>-0.6464568836294896</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.986273211771426</v>
+        <v>-3.216388021737576</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.378764126157872</v>
+        <v>6.031798557622548</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.061550108071808</v>
+        <v>8.325161183828445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.30283654158259</v>
+        <v>7.418053462781613</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.099634549661</v>
+        <v>13.60002523482006</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.3976818278463</v>
+        <v>10.51987563560579</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.912823397355313</v>
+        <v>3.732758979136193</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.514217938562913</v>
+        <v>8.153827356284987</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.681570612414894</v>
+        <v>7.961412653736454</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.296324341315048</v>
+        <v>4.250886999661393</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2224403142802005</v>
+        <v>-0.2363253328408389</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.13822300047557</v>
+        <v>-0.1388687619997339</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1390361871014708</v>
+        <v>-0.120355968792493</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04859567427075649</v>
+        <v>0.04422753974172589</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04482324461356439</v>
+        <v>-0.04572204701906422</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2284493885022888</v>
+        <v>-0.2236452524571445</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01300629686895912</v>
+        <v>-0.01218324903691572</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0485954074618104</v>
+        <v>-0.02778605014035835</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1236592929862376</v>
+        <v>-0.1316798401497309</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.333289560541862</v>
+        <v>0.313442537430114</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4438275281397389</v>
+        <v>0.4378852445900112</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3878474203245708</v>
+        <v>0.4031721826825032</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7197126788506958</v>
+        <v>0.6821005353813812</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5464193161523349</v>
+        <v>0.5472150679349239</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2074568665095878</v>
+        <v>0.1996971680843278</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4273396279435743</v>
+        <v>0.4084438400756837</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3865402556766842</v>
+        <v>0.3996994234661975</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2173055954948594</v>
+        <v>0.214346065926415</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>11.14899451355942</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6.55360895770386</v>
+        <v>6.553608957703855</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>9.477540147960346</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.599371207281042</v>
+        <v>2.46245980518406</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.811896649291316</v>
+        <v>3.448588404310594</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.3326167644788949</v>
+        <v>0.6432849813997004</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.324688298423596</v>
+        <v>2.029724387625618</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.284339732430604</v>
+        <v>-7.313153480758892</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-12.67312915545217</v>
+        <v>-12.60484567993513</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.336239061612748</v>
+        <v>3.849044911737718</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.09688482372152525</v>
+        <v>0.121102012690412</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.876426646782834</v>
+        <v>-4.916015499707036</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>16.4792869152377</v>
+        <v>17.01633336994603</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>18.09664332836864</v>
+        <v>16.84782278239279</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11.74250858462005</v>
+        <v>12.34976668632508</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17.2417578354678</v>
+        <v>16.47454943332124</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.352324448612052</v>
+        <v>6.090508881978984</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.318415170782258</v>
+        <v>-1.891326115358349</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.47661267521423</v>
+        <v>13.65241245202312</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.12672898616144</v>
+        <v>9.897807295656383</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.840955426289307</v>
+        <v>3.274170202923466</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.6530665155563833</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3838859693689407</v>
+        <v>0.3838859693689404</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.3001536719621274</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1201864844870217</v>
+        <v>0.1301892540806241</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2327970609862592</v>
+        <v>0.1576448668573343</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.01548240926379683</v>
+        <v>0.02043573651253967</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.06669079257036832</v>
+        <v>0.05388037019408528</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2072755411337447</v>
+        <v>-0.2126139280382356</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.355399267034356</v>
+        <v>-0.3556852509173852</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1249200241339417</v>
+        <v>0.1259761584839676</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.003548239073579346</v>
+        <v>0.004808598619735079</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1754747245559736</v>
+        <v>-0.1789334772029526</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.161836565838563</v>
+        <v>1.200425300009747</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.314427448776166</v>
+        <v>1.234707184662111</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8722237043518958</v>
+        <v>0.9167650426142596</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6046729740374858</v>
+        <v>0.5911524873392998</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2584007143601701</v>
+        <v>0.2150439999254386</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.04700703767324688</v>
+        <v>-0.07140410770042167</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6031975026498528</v>
+        <v>0.5990307367526556</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4481625438377358</v>
+        <v>0.4403042255591554</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1253813965723399</v>
+        <v>0.1451036489559687</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.863883239386125</v>
+        <v>-5.86084085467466</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.62947264828188</v>
+        <v>-7.830177037546012</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-12.40581052903314</v>
+        <v>-13.35898527454533</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.24717609074083</v>
+        <v>-3.090653917005051</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.485133008061142</v>
+        <v>-3.230523615247832</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-14.3366091040276</v>
+        <v>-14.58619580598106</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.292522134713305</v>
+        <v>-1.844183349103885</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.260446327855758</v>
+        <v>-3.078710017352355</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-11.75294263053333</v>
+        <v>-11.86537122769783</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.69215576726862</v>
+        <v>10.85215700991001</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.335818349241128</v>
+        <v>7.925118428180014</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.18069681504765</v>
+        <v>0.7826628385030012</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.01014812881821</v>
+        <v>12.13971711736556</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>11.61318424663965</v>
+        <v>12.92392797480126</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.835150256502226</v>
+        <v>-1.914539159022062</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.312437160573307</v>
+        <v>9.278227018030421</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.888611095957652</v>
+        <v>8.055240208191874</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.082028124631109</v>
+        <v>-2.507694238374971</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2210277836045055</v>
+        <v>-0.2348135575389435</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3036619038343376</v>
+        <v>-0.2932181115046658</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4728465636056406</v>
+        <v>-0.4775239532206343</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.09412263768222769</v>
+        <v>-0.08995433413553958</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1235510470995477</v>
+        <v>-0.09669102479592909</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3986035693098713</v>
+        <v>-0.4023912743989536</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.07521625112170127</v>
+        <v>-0.06121079146999506</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1139378614983139</v>
+        <v>-0.1078652882666451</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3772246507416745</v>
+        <v>-0.3914169802558428</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6155589962897966</v>
+        <v>0.6255223422714313</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4209820595434927</v>
+        <v>0.4391018297845224</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.07392189678534067</v>
+        <v>0.04990374909411057</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4607878442145669</v>
+        <v>0.4685868833050901</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4353449025466984</v>
+        <v>0.4674863340500586</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.07032910549204247</v>
+        <v>-0.06629678331634689</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3847771008183671</v>
+        <v>0.39820436777595</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3698002993090737</v>
+        <v>0.337673018358127</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.08315078926817766</v>
+        <v>-0.101744005540773</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>4.275721157986381</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>3.533640352704837</v>
+        <v>3.533640352704831</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.514526633017914</v>
+        <v>2.54110746465784</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.141667491244544</v>
+        <v>3.161078775353846</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.134136776459401</v>
+        <v>2.97809138124451</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4.046401990664843</v>
+        <v>4.323610023408964</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.05480264434186</v>
+        <v>2.056155728389951</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.6728477291334729</v>
+        <v>0.6704999363431697</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.89905533279656</v>
+        <v>3.88850814562309</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.965458408156602</v>
+        <v>3.007435486287082</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>2.310561871322748</v>
+        <v>2.271462584534888</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.170389399564115</v>
+        <v>6.14285701792617</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.490439398671017</v>
+        <v>6.720550383667538</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.6643729759952</v>
+        <v>6.516618516899306</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.922147993249423</v>
+        <v>8.022244942174432</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.730316037188698</v>
+        <v>5.707746809190362</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.827033278933524</v>
+        <v>3.907617957349591</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.611119122770141</v>
+        <v>6.449873881745809</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.594100152849929</v>
+        <v>5.470949462109291</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.756371642159942</v>
+        <v>4.744521324830817</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.3149960192242685</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2603262942891397</v>
+        <v>0.2603262942891392</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1881193196008929</v>
+        <v>0.1891410326471307</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2408106785054364</v>
+        <v>0.2504400558226751</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2444110002021452</v>
+        <v>0.2299786429630817</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2566542104091246</v>
+        <v>0.2705247408466147</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1286164399837829</v>
+        <v>0.1310313100546361</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04324937362791972</v>
+        <v>0.04362661070942792</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2755166626066136</v>
+        <v>0.274231335701184</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2094883514325572</v>
+        <v>0.2094640174854442</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1632714114653692</v>
+        <v>0.1591311238070864</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5336561163842779</v>
+        <v>0.5354528892778747</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5668112067916181</v>
+        <v>0.6022048123110388</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5849129934277914</v>
+        <v>0.5780744511310137</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5599784374872564</v>
+        <v>0.5636948399841708</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4048816944934248</v>
+        <v>0.4108182986089896</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2755685158393713</v>
+        <v>0.2863602488402434</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5100042748376222</v>
+        <v>0.4951833852744326</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4348872154087809</v>
+        <v>0.4193347248370475</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3698366065599244</v>
+        <v>0.3652788258352332</v>
       </c>
     </row>
     <row r="52">
